--- a/トマト/トマト_IDs.xlsx
+++ b/トマト/トマト_IDs.xlsx
@@ -14,12 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="250">
   <si>
     <t xml:space="preserve"/>
   </si>
   <si>
-    <t xml:space="preserve">IDs1_Only.setdiff.IDs_1..IDs_2.</t>
+    <t xml:space="preserve">setdiff.IDs_1..IDs_2.</t>
   </si>
   <si>
     <t xml:space="preserve">1</t>
@@ -541,7 +541,13 @@
     <t xml:space="preserve">440080</t>
   </si>
   <si>
-    <t xml:space="preserve">IDs2OnlyAndNames.setdiff.IDs_2..IDs_1.</t>
+    <t xml:space="preserve">setdiff.IDs_2..IDs_1.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1004</t>
   </si>
   <si>
     <t xml:space="preserve">12647</t>
@@ -553,9 +559,18 @@
     <t xml:space="preserve">135191</t>
   </si>
   <si>
+    <t xml:space="preserve">66308</t>
+  </si>
+  <si>
     <t xml:space="preserve">428</t>
   </si>
   <si>
+    <t xml:space="preserve">444212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">128869</t>
+  </si>
+  <si>
     <t xml:space="preserve">1150</t>
   </si>
   <si>
@@ -571,7 +586,7 @@
     <t xml:space="preserve">10542</t>
   </si>
   <si>
-    <t xml:space="preserve">IDsCommonAndNames.intersect.IDs_2..IDs_1.</t>
+    <t xml:space="preserve">intersect.IDs_2..IDs_1.</t>
   </si>
   <si>
     <t xml:space="preserve">107689</t>
@@ -661,433 +676,94 @@
     <t xml:space="preserve">311</t>
   </si>
   <si>
-    <t xml:space="preserve">88</t>
-  </si>
-  <si>
     <t xml:space="preserve">6262</t>
   </si>
   <si>
-    <t xml:space="preserve">89</t>
-  </si>
-  <si>
-    <t xml:space="preserve">90</t>
-  </si>
-  <si>
-    <t xml:space="preserve">91</t>
-  </si>
-  <si>
-    <t xml:space="preserve">92</t>
-  </si>
-  <si>
-    <t xml:space="preserve">93</t>
-  </si>
-  <si>
     <t xml:space="preserve">2724333</t>
   </si>
   <si>
-    <t xml:space="preserve">94</t>
-  </si>
-  <si>
-    <t xml:space="preserve">95</t>
-  </si>
-  <si>
-    <t xml:space="preserve">96</t>
-  </si>
-  <si>
-    <t xml:space="preserve">97</t>
-  </si>
-  <si>
-    <t xml:space="preserve">98</t>
-  </si>
-  <si>
     <t xml:space="preserve">439709</t>
   </si>
   <si>
-    <t xml:space="preserve">99</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">102</t>
-  </si>
-  <si>
     <t xml:space="preserve">18950</t>
   </si>
   <si>
-    <t xml:space="preserve">103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">104</t>
-  </si>
-  <si>
     <t xml:space="preserve">5962</t>
   </si>
   <si>
-    <t xml:space="preserve">105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">107</t>
-  </si>
-  <si>
     <t xml:space="preserve">84740</t>
   </si>
   <si>
-    <t xml:space="preserve">108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">110</t>
-  </si>
-  <si>
-    <t xml:space="preserve">111</t>
-  </si>
-  <si>
     <t xml:space="preserve">6057</t>
   </si>
   <si>
-    <t xml:space="preserve">112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">114</t>
-  </si>
-  <si>
     <t xml:space="preserve">33037</t>
   </si>
   <si>
-    <t xml:space="preserve">115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">116</t>
-  </si>
-  <si>
     <t xml:space="preserve">5280435</t>
   </si>
   <si>
-    <t xml:space="preserve">117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">118</t>
-  </si>
-  <si>
     <t xml:space="preserve">5280450</t>
   </si>
   <si>
-    <t xml:space="preserve">120</t>
-  </si>
-  <si>
-    <t xml:space="preserve">121</t>
-  </si>
-  <si>
     <t xml:space="preserve">5280934</t>
   </si>
   <si>
-    <t xml:space="preserve">122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">123</t>
-  </si>
-  <si>
     <t xml:space="preserve">6305</t>
   </si>
   <si>
-    <t xml:space="preserve">124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">128</t>
-  </si>
-  <si>
     <t xml:space="preserve">1102</t>
   </si>
   <si>
-    <t xml:space="preserve">129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">130</t>
-  </si>
-  <si>
-    <t xml:space="preserve">131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">132</t>
-  </si>
-  <si>
     <t xml:space="preserve">5958</t>
   </si>
   <si>
-    <t xml:space="preserve">133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">134</t>
-  </si>
-  <si>
     <t xml:space="preserve">10991489</t>
   </si>
   <si>
-    <t xml:space="preserve">135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">137</t>
-  </si>
-  <si>
     <t xml:space="preserve">7427</t>
   </si>
   <si>
-    <t xml:space="preserve">138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">140</t>
-  </si>
-  <si>
-    <t xml:space="preserve">141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">145</t>
-  </si>
-  <si>
     <t xml:space="preserve">439451</t>
   </si>
   <si>
-    <t xml:space="preserve">146</t>
-  </si>
-  <si>
     <t xml:space="preserve">1794427</t>
   </si>
   <si>
-    <t xml:space="preserve">147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">150</t>
-  </si>
-  <si>
     <t xml:space="preserve">14985</t>
   </si>
   <si>
-    <t xml:space="preserve">151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">154</t>
-  </si>
-  <si>
     <t xml:space="preserve">145742</t>
   </si>
   <si>
-    <t xml:space="preserve">155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">160</t>
-  </si>
-  <si>
-    <t xml:space="preserve">161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">162</t>
-  </si>
-  <si>
     <t xml:space="preserve">7405</t>
   </si>
   <si>
-    <t xml:space="preserve">163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">166</t>
-  </si>
-  <si>
     <t xml:space="preserve">33032</t>
   </si>
   <si>
-    <t xml:space="preserve">167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">169</t>
-  </si>
-  <si>
     <t xml:space="preserve">5793</t>
   </si>
   <si>
-    <t xml:space="preserve">170</t>
-  </si>
-  <si>
-    <t xml:space="preserve">171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">180</t>
-  </si>
-  <si>
-    <t xml:space="preserve">181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">182</t>
-  </si>
-  <si>
     <t xml:space="preserve">5988</t>
   </si>
   <si>
-    <t xml:space="preserve">183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">184</t>
-  </si>
-  <si>
     <t xml:space="preserve">985</t>
   </si>
   <si>
-    <t xml:space="preserve">186</t>
-  </si>
-  <si>
     <t xml:space="preserve">5960</t>
   </si>
   <si>
-    <t xml:space="preserve">187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">189</t>
-  </si>
-  <si>
     <t xml:space="preserve">6274</t>
   </si>
   <si>
-    <t xml:space="preserve">191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">193</t>
-  </si>
-  <si>
     <t xml:space="preserve">204</t>
   </si>
   <si>
-    <t xml:space="preserve">194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">198</t>
-  </si>
-  <si>
     <t xml:space="preserve">69507</t>
   </si>
   <si>
-    <t xml:space="preserve">199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">202</t>
-  </si>
-  <si>
     <t xml:space="preserve">25310</t>
-  </si>
-  <si>
-    <t xml:space="preserve">203</t>
   </si>
 </sst>
 </file>
@@ -2158,7 +1834,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="4">
@@ -2166,7 +1842,7 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="5">
@@ -2174,7 +1850,7 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6">
@@ -2182,7 +1858,7 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
     </row>
     <row r="7">
@@ -2190,7 +1866,7 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="8">
@@ -2198,7 +1874,7 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="9">
@@ -2206,7 +1882,7 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
     </row>
     <row r="10">
@@ -2214,7 +1890,7 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
     </row>
     <row r="11">
@@ -2222,7 +1898,7 @@
         <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
     </row>
     <row r="12">
@@ -2230,7 +1906,7 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
     </row>
     <row r="13">
@@ -2238,7 +1914,7 @@
         <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
     </row>
     <row r="14">
@@ -2246,7 +1922,7 @@
         <v>26</v>
       </c>
       <c r="B14" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
     </row>
     <row r="15">
@@ -2254,7 +1930,7 @@
         <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
     </row>
     <row r="16">
@@ -2262,94 +1938,6 @@
         <v>30</v>
       </c>
       <c r="B16" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s">
-        <v>38</v>
-      </c>
-      <c r="B20" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s">
-        <v>40</v>
-      </c>
-      <c r="B21" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s">
-        <v>42</v>
-      </c>
-      <c r="B22" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>44</v>
-      </c>
-      <c r="B23" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s">
-        <v>46</v>
-      </c>
-      <c r="B24" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s">
-        <v>48</v>
-      </c>
-      <c r="B25" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s">
-        <v>50</v>
-      </c>
-      <c r="B26" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s">
-        <v>52</v>
-      </c>
-      <c r="B27" t="s">
         <v>102</v>
       </c>
     </row>
@@ -2372,7 +1960,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
     </row>
     <row r="2">
@@ -2380,7 +1968,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
     </row>
     <row r="3">
@@ -2388,7 +1976,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
     </row>
     <row r="4">
@@ -2396,7 +1984,7 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
     </row>
     <row r="5">
@@ -2404,7 +1992,7 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
     </row>
     <row r="6">
@@ -2412,7 +2000,7 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
     </row>
     <row r="7">
@@ -2420,7 +2008,7 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
     </row>
     <row r="8">
@@ -2428,7 +2016,7 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
     </row>
     <row r="9">
@@ -2436,7 +2024,7 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
     </row>
     <row r="10">
@@ -2444,7 +2032,7 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
     </row>
     <row r="11">
@@ -2452,7 +2040,7 @@
         <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
     </row>
     <row r="12">
@@ -2460,7 +2048,7 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
     </row>
     <row r="13">
@@ -2468,7 +2056,7 @@
         <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
     </row>
     <row r="14">
@@ -2476,7 +2064,7 @@
         <v>26</v>
       </c>
       <c r="B14" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
     </row>
     <row r="15">
@@ -2484,7 +2072,7 @@
         <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>191</v>
+        <v>204</v>
       </c>
     </row>
     <row r="16">
@@ -2492,7 +2080,7 @@
         <v>30</v>
       </c>
       <c r="B16" t="s">
-        <v>192</v>
+        <v>205</v>
       </c>
     </row>
     <row r="17">
@@ -2500,7 +2088,7 @@
         <v>32</v>
       </c>
       <c r="B17" t="s">
-        <v>192</v>
+        <v>206</v>
       </c>
     </row>
     <row r="18">
@@ -2508,7 +2096,7 @@
         <v>34</v>
       </c>
       <c r="B18" t="s">
-        <v>192</v>
+        <v>207</v>
       </c>
     </row>
     <row r="19">
@@ -2516,7 +2104,7 @@
         <v>36</v>
       </c>
       <c r="B19" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
     </row>
     <row r="20">
@@ -2524,7 +2112,7 @@
         <v>38</v>
       </c>
       <c r="B20" t="s">
-        <v>193</v>
+        <v>209</v>
       </c>
     </row>
     <row r="21">
@@ -2532,7 +2120,7 @@
         <v>40</v>
       </c>
       <c r="B21" t="s">
-        <v>194</v>
+        <v>210</v>
       </c>
     </row>
     <row r="22">
@@ -2540,7 +2128,7 @@
         <v>42</v>
       </c>
       <c r="B22" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
     </row>
     <row r="23">
@@ -2548,7 +2136,7 @@
         <v>44</v>
       </c>
       <c r="B23" t="s">
-        <v>194</v>
+        <v>212</v>
       </c>
     </row>
     <row r="24">
@@ -2556,7 +2144,7 @@
         <v>46</v>
       </c>
       <c r="B24" t="s">
-        <v>195</v>
+        <v>213</v>
       </c>
     </row>
     <row r="25">
@@ -2564,7 +2152,7 @@
         <v>48</v>
       </c>
       <c r="B25" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
     </row>
     <row r="26">
@@ -2572,7 +2160,7 @@
         <v>50</v>
       </c>
       <c r="B26" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
     </row>
     <row r="27">
@@ -2580,7 +2168,7 @@
         <v>52</v>
       </c>
       <c r="B27" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
     </row>
     <row r="28">
@@ -2588,7 +2176,7 @@
         <v>54</v>
       </c>
       <c r="B28" t="s">
-        <v>196</v>
+        <v>217</v>
       </c>
     </row>
     <row r="29">
@@ -2596,7 +2184,7 @@
         <v>56</v>
       </c>
       <c r="B29" t="s">
-        <v>196</v>
+        <v>218</v>
       </c>
     </row>
     <row r="30">
@@ -2604,7 +2192,7 @@
         <v>58</v>
       </c>
       <c r="B30" t="s">
-        <v>197</v>
+        <v>219</v>
       </c>
     </row>
     <row r="31">
@@ -2612,7 +2200,7 @@
         <v>60</v>
       </c>
       <c r="B31" t="s">
-        <v>197</v>
+        <v>220</v>
       </c>
     </row>
     <row r="32">
@@ -2620,7 +2208,7 @@
         <v>62</v>
       </c>
       <c r="B32" t="s">
-        <v>198</v>
+        <v>221</v>
       </c>
     </row>
     <row r="33">
@@ -2628,7 +2216,7 @@
         <v>64</v>
       </c>
       <c r="B33" t="s">
-        <v>199</v>
+        <v>222</v>
       </c>
     </row>
     <row r="34">
@@ -2636,7 +2224,7 @@
         <v>66</v>
       </c>
       <c r="B34" t="s">
-        <v>199</v>
+        <v>223</v>
       </c>
     </row>
     <row r="35">
@@ -2644,7 +2232,7 @@
         <v>68</v>
       </c>
       <c r="B35" t="s">
-        <v>199</v>
+        <v>224</v>
       </c>
     </row>
     <row r="36">
@@ -2652,7 +2240,7 @@
         <v>70</v>
       </c>
       <c r="B36" t="s">
-        <v>200</v>
+        <v>225</v>
       </c>
     </row>
     <row r="37">
@@ -2660,7 +2248,7 @@
         <v>72</v>
       </c>
       <c r="B37" t="s">
-        <v>200</v>
+        <v>226</v>
       </c>
     </row>
     <row r="38">
@@ -2668,7 +2256,7 @@
         <v>74</v>
       </c>
       <c r="B38" t="s">
-        <v>200</v>
+        <v>227</v>
       </c>
     </row>
     <row r="39">
@@ -2676,7 +2264,7 @@
         <v>76</v>
       </c>
       <c r="B39" t="s">
-        <v>200</v>
+        <v>228</v>
       </c>
     </row>
     <row r="40">
@@ -2684,7 +2272,7 @@
         <v>78</v>
       </c>
       <c r="B40" t="s">
-        <v>201</v>
+        <v>229</v>
       </c>
     </row>
     <row r="41">
@@ -2692,7 +2280,7 @@
         <v>80</v>
       </c>
       <c r="B41" t="s">
-        <v>201</v>
+        <v>230</v>
       </c>
     </row>
     <row r="42">
@@ -2700,7 +2288,7 @@
         <v>82</v>
       </c>
       <c r="B42" t="s">
-        <v>201</v>
+        <v>231</v>
       </c>
     </row>
     <row r="43">
@@ -2708,7 +2296,7 @@
         <v>84</v>
       </c>
       <c r="B43" t="s">
-        <v>201</v>
+        <v>232</v>
       </c>
     </row>
     <row r="44">
@@ -2716,7 +2304,7 @@
         <v>86</v>
       </c>
       <c r="B44" t="s">
-        <v>201</v>
+        <v>233</v>
       </c>
     </row>
     <row r="45">
@@ -2724,7 +2312,7 @@
         <v>88</v>
       </c>
       <c r="B45" t="s">
-        <v>202</v>
+        <v>234</v>
       </c>
     </row>
     <row r="46">
@@ -2732,7 +2320,7 @@
         <v>90</v>
       </c>
       <c r="B46" t="s">
-        <v>202</v>
+        <v>235</v>
       </c>
     </row>
     <row r="47">
@@ -2740,7 +2328,7 @@
         <v>92</v>
       </c>
       <c r="B47" t="s">
-        <v>203</v>
+        <v>236</v>
       </c>
     </row>
     <row r="48">
@@ -2748,7 +2336,7 @@
         <v>94</v>
       </c>
       <c r="B48" t="s">
-        <v>203</v>
+        <v>237</v>
       </c>
     </row>
     <row r="49">
@@ -2756,7 +2344,7 @@
         <v>96</v>
       </c>
       <c r="B49" t="s">
-        <v>203</v>
+        <v>238</v>
       </c>
     </row>
     <row r="50">
@@ -2764,7 +2352,7 @@
         <v>98</v>
       </c>
       <c r="B50" t="s">
-        <v>203</v>
+        <v>239</v>
       </c>
     </row>
     <row r="51">
@@ -2772,7 +2360,7 @@
         <v>100</v>
       </c>
       <c r="B51" t="s">
-        <v>204</v>
+        <v>240</v>
       </c>
     </row>
     <row r="52">
@@ -2780,7 +2368,7 @@
         <v>102</v>
       </c>
       <c r="B52" t="s">
-        <v>204</v>
+        <v>241</v>
       </c>
     </row>
     <row r="53">
@@ -2788,7 +2376,7 @@
         <v>104</v>
       </c>
       <c r="B53" t="s">
-        <v>205</v>
+        <v>242</v>
       </c>
     </row>
     <row r="54">
@@ -2796,7 +2384,7 @@
         <v>106</v>
       </c>
       <c r="B54" t="s">
-        <v>205</v>
+        <v>243</v>
       </c>
     </row>
     <row r="55">
@@ -2804,7 +2392,7 @@
         <v>108</v>
       </c>
       <c r="B55" t="s">
-        <v>205</v>
+        <v>244</v>
       </c>
     </row>
     <row r="56">
@@ -2812,7 +2400,7 @@
         <v>110</v>
       </c>
       <c r="B56" t="s">
-        <v>206</v>
+        <v>245</v>
       </c>
     </row>
     <row r="57">
@@ -2820,7 +2408,7 @@
         <v>112</v>
       </c>
       <c r="B57" t="s">
-        <v>206</v>
+        <v>246</v>
       </c>
     </row>
     <row r="58">
@@ -2828,7 +2416,7 @@
         <v>114</v>
       </c>
       <c r="B58" t="s">
-        <v>206</v>
+        <v>247</v>
       </c>
     </row>
     <row r="59">
@@ -2836,7 +2424,7 @@
         <v>116</v>
       </c>
       <c r="B59" t="s">
-        <v>207</v>
+        <v>248</v>
       </c>
     </row>
     <row r="60">
@@ -2844,1159 +2432,7 @@
         <v>118</v>
       </c>
       <c r="B60" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="s">
-        <v>120</v>
-      </c>
-      <c r="B61" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="s">
-        <v>122</v>
-      </c>
-      <c r="B62" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="s">
-        <v>124</v>
-      </c>
-      <c r="B63" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="s">
-        <v>126</v>
-      </c>
-      <c r="B64" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="s">
-        <v>128</v>
-      </c>
-      <c r="B65" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="s">
-        <v>130</v>
-      </c>
-      <c r="B66" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="s">
-        <v>132</v>
-      </c>
-      <c r="B67" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="s">
-        <v>134</v>
-      </c>
-      <c r="B68" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="s">
-        <v>136</v>
-      </c>
-      <c r="B69" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="s">
-        <v>138</v>
-      </c>
-      <c r="B70" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="s">
-        <v>140</v>
-      </c>
-      <c r="B71" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="s">
-        <v>142</v>
-      </c>
-      <c r="B72" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="s">
-        <v>95</v>
-      </c>
-      <c r="B73" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="s">
-        <v>145</v>
-      </c>
-      <c r="B74" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="s">
-        <v>147</v>
-      </c>
-      <c r="B75" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="s">
-        <v>149</v>
-      </c>
-      <c r="B76" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="s">
-        <v>151</v>
-      </c>
-      <c r="B77" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="s">
-        <v>153</v>
-      </c>
-      <c r="B78" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="s">
-        <v>155</v>
-      </c>
-      <c r="B79" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="s">
-        <v>157</v>
-      </c>
-      <c r="B80" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="s">
-        <v>159</v>
-      </c>
-      <c r="B81" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="s">
-        <v>161</v>
-      </c>
-      <c r="B82" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="s">
-        <v>163</v>
-      </c>
-      <c r="B83" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="s">
-        <v>165</v>
-      </c>
-      <c r="B84" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="s">
-        <v>167</v>
-      </c>
-      <c r="B85" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="s">
-        <v>169</v>
-      </c>
-      <c r="B86" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="s">
-        <v>171</v>
-      </c>
-      <c r="B87" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="s">
-        <v>173</v>
-      </c>
-      <c r="B88" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="s">
-        <v>215</v>
-      </c>
-      <c r="B89" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="s">
-        <v>217</v>
-      </c>
-      <c r="B90" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="s">
-        <v>218</v>
-      </c>
-      <c r="B91" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="s">
-        <v>219</v>
-      </c>
-      <c r="B92" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="s">
-        <v>220</v>
-      </c>
-      <c r="B93" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="s">
-        <v>221</v>
-      </c>
-      <c r="B94" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="s">
-        <v>223</v>
-      </c>
-      <c r="B95" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="s">
-        <v>224</v>
-      </c>
-      <c r="B96" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="s">
-        <v>225</v>
-      </c>
-      <c r="B97" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="s">
-        <v>226</v>
-      </c>
-      <c r="B98" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="s">
-        <v>227</v>
-      </c>
-      <c r="B99" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="s">
-        <v>229</v>
-      </c>
-      <c r="B100" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="s">
-        <v>230</v>
-      </c>
-      <c r="B101" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="s">
-        <v>231</v>
-      </c>
-      <c r="B102" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="s">
-        <v>232</v>
-      </c>
-      <c r="B103" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="s">
-        <v>234</v>
-      </c>
-      <c r="B104" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="s">
-        <v>235</v>
-      </c>
-      <c r="B105" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="s">
-        <v>237</v>
-      </c>
-      <c r="B106" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="s">
-        <v>238</v>
-      </c>
-      <c r="B107" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="s">
-        <v>239</v>
-      </c>
-      <c r="B108" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="s">
-        <v>241</v>
-      </c>
-      <c r="B109" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="s">
-        <v>242</v>
-      </c>
-      <c r="B110" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="s">
-        <v>243</v>
-      </c>
-      <c r="B111" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="s">
-        <v>244</v>
-      </c>
-      <c r="B112" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="s">
-        <v>246</v>
-      </c>
-      <c r="B113" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="s">
-        <v>247</v>
-      </c>
-      <c r="B114" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="s">
-        <v>248</v>
-      </c>
-      <c r="B115" t="s">
         <v>249</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="s">
-        <v>250</v>
-      </c>
-      <c r="B116" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="s">
-        <v>251</v>
-      </c>
-      <c r="B117" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="s">
-        <v>253</v>
-      </c>
-      <c r="B118" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="s">
-        <v>254</v>
-      </c>
-      <c r="B119" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="s">
-        <v>206</v>
-      </c>
-      <c r="B120" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="s">
-        <v>256</v>
-      </c>
-      <c r="B121" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="s">
-        <v>257</v>
-      </c>
-      <c r="B122" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="s">
-        <v>259</v>
-      </c>
-      <c r="B123" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="s">
-        <v>260</v>
-      </c>
-      <c r="B124" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="s">
-        <v>262</v>
-      </c>
-      <c r="B125" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="s">
-        <v>263</v>
-      </c>
-      <c r="B126" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="s">
-        <v>264</v>
-      </c>
-      <c r="B127" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="s">
-        <v>265</v>
-      </c>
-      <c r="B128" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="s">
-        <v>266</v>
-      </c>
-      <c r="B129" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="s">
-        <v>268</v>
-      </c>
-      <c r="B130" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="s">
-        <v>269</v>
-      </c>
-      <c r="B131" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="s">
-        <v>270</v>
-      </c>
-      <c r="B132" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="s">
-        <v>271</v>
-      </c>
-      <c r="B133" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="s">
-        <v>273</v>
-      </c>
-      <c r="B134" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="s">
-        <v>274</v>
-      </c>
-      <c r="B135" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="s">
-        <v>276</v>
-      </c>
-      <c r="B136" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="s">
-        <v>277</v>
-      </c>
-      <c r="B137" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="s">
-        <v>278</v>
-      </c>
-      <c r="B138" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="s">
-        <v>280</v>
-      </c>
-      <c r="B139" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="s">
-        <v>281</v>
-      </c>
-      <c r="B140" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="s">
-        <v>282</v>
-      </c>
-      <c r="B141" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="s">
-        <v>283</v>
-      </c>
-      <c r="B142" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="s">
-        <v>284</v>
-      </c>
-      <c r="B143" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="s">
-        <v>285</v>
-      </c>
-      <c r="B144" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="s">
-        <v>286</v>
-      </c>
-      <c r="B145" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="s">
-        <v>287</v>
-      </c>
-      <c r="B146" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="s">
-        <v>289</v>
-      </c>
-      <c r="B147" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="s">
-        <v>291</v>
-      </c>
-      <c r="B148" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="s">
-        <v>292</v>
-      </c>
-      <c r="B149" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="s">
-        <v>293</v>
-      </c>
-      <c r="B150" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="s">
-        <v>294</v>
-      </c>
-      <c r="B151" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="s">
-        <v>296</v>
-      </c>
-      <c r="B152" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="s">
-        <v>297</v>
-      </c>
-      <c r="B153" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" t="s">
-        <v>298</v>
-      </c>
-      <c r="B154" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="s">
-        <v>299</v>
-      </c>
-      <c r="B155" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="s">
-        <v>301</v>
-      </c>
-      <c r="B156" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="s">
-        <v>302</v>
-      </c>
-      <c r="B157" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="s">
-        <v>303</v>
-      </c>
-      <c r="B158" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="s">
-        <v>304</v>
-      </c>
-      <c r="B159" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="s">
-        <v>305</v>
-      </c>
-      <c r="B160" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" t="s">
-        <v>306</v>
-      </c>
-      <c r="B161" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" t="s">
-        <v>307</v>
-      </c>
-      <c r="B162" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" t="s">
-        <v>308</v>
-      </c>
-      <c r="B163" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" t="s">
-        <v>310</v>
-      </c>
-      <c r="B164" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" t="s">
-        <v>311</v>
-      </c>
-      <c r="B165" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" t="s">
-        <v>312</v>
-      </c>
-      <c r="B166" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" t="s">
-        <v>313</v>
-      </c>
-      <c r="B167" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" t="s">
-        <v>315</v>
-      </c>
-      <c r="B168" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" t="s">
-        <v>316</v>
-      </c>
-      <c r="B169" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" t="s">
-        <v>317</v>
-      </c>
-      <c r="B170" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" t="s">
-        <v>319</v>
-      </c>
-      <c r="B171" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" t="s">
-        <v>320</v>
-      </c>
-      <c r="B172" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" t="s">
-        <v>321</v>
-      </c>
-      <c r="B173" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" t="s">
-        <v>322</v>
-      </c>
-      <c r="B174" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" t="s">
-        <v>323</v>
-      </c>
-      <c r="B175" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" t="s">
-        <v>324</v>
-      </c>
-      <c r="B176" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" t="s">
-        <v>325</v>
-      </c>
-      <c r="B177" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" t="s">
-        <v>326</v>
-      </c>
-      <c r="B178" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" t="s">
-        <v>327</v>
-      </c>
-      <c r="B179" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" t="s">
-        <v>328</v>
-      </c>
-      <c r="B180" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" t="s">
-        <v>329</v>
-      </c>
-      <c r="B181" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" t="s">
-        <v>330</v>
-      </c>
-      <c r="B182" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" t="s">
-        <v>331</v>
-      </c>
-      <c r="B183" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" t="s">
-        <v>333</v>
-      </c>
-      <c r="B184" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" t="s">
-        <v>334</v>
-      </c>
-      <c r="B185" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" t="s">
-        <v>91</v>
-      </c>
-      <c r="B186" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" t="s">
-        <v>336</v>
-      </c>
-      <c r="B187" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" t="s">
-        <v>338</v>
-      </c>
-      <c r="B188" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" t="s">
-        <v>339</v>
-      </c>
-      <c r="B189" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" t="s">
-        <v>340</v>
-      </c>
-      <c r="B190" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" t="s">
-        <v>107</v>
-      </c>
-      <c r="B191" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" t="s">
-        <v>342</v>
-      </c>
-      <c r="B192" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" t="s">
-        <v>343</v>
-      </c>
-      <c r="B193" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" t="s">
-        <v>344</v>
-      </c>
-      <c r="B194" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" t="s">
-        <v>346</v>
-      </c>
-      <c r="B195" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" t="s">
-        <v>347</v>
-      </c>
-      <c r="B196" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" t="s">
-        <v>348</v>
-      </c>
-      <c r="B197" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" t="s">
-        <v>349</v>
-      </c>
-      <c r="B198" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" t="s">
-        <v>350</v>
-      </c>
-      <c r="B199" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" t="s">
-        <v>352</v>
-      </c>
-      <c r="B200" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" t="s">
-        <v>353</v>
-      </c>
-      <c r="B201" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" t="s">
-        <v>354</v>
-      </c>
-      <c r="B202" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" t="s">
-        <v>355</v>
-      </c>
-      <c r="B203" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" t="s">
-        <v>357</v>
-      </c>
-      <c r="B204" t="s">
-        <v>356</v>
       </c>
     </row>
   </sheetData>
